--- a/Glossaire-Mobile.xlsx
+++ b/Glossaire-Mobile.xlsx
@@ -1,173 +1,180 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="600" windowWidth="28215" windowHeight="13995"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuille 1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
-    <t>Glossaire</t>
-  </si>
-  <si>
-    <t>Définition</t>
-  </si>
-  <si>
-    <t>Outils pour le développement
+    <t xml:space="preserve">Glossaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Définition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outils pour le développement
 d'applications natives</t>
   </si>
   <si>
     <t xml:space="preserve"> Consiste à développer avec les outils/langages propres à chaque système d'exploitation.</t>
   </si>
   <si>
-    <t>Sous iOS : Nécessite un matériel Apple</t>
-  </si>
-  <si>
-    <t>Xcode  (IDE pour iOS)</t>
-  </si>
-  <si>
-    <t>Est un environnement (IDE - Intégrated Development Environnement) de développement pour le système d'exploitation macOS ainsi que pour IOS</t>
-  </si>
-  <si>
-    <t>Objective-C (Langage pour iOS)</t>
-  </si>
-  <si>
-    <t>Objective-C est un langage de programmation orienté objet réflexif extension du C. Il est principalement utilisé dans les systèmes d'exploitation d'Apple : macOS et son dérivé iOS</t>
-  </si>
-  <si>
-    <t>Sous Android</t>
-  </si>
-  <si>
-    <t>Android studio (IDE pour ANDROID)</t>
-  </si>
-  <si>
-    <t>Est un environnement (IDE) de développement pour le système d'exploitation Android</t>
-  </si>
-  <si>
-    <t>Eclipse (IDE pour ANDROID)</t>
-  </si>
-  <si>
-    <t>Eclipse est un projet, décliné et organisé en un ensemble de sous-projets de développements logiciels, de la fondation Eclipse visant à développer un environnement de production de logiciels libre qui soit extensible, universel et polyvalent, en s'appuyant principalement sur Java.</t>
-  </si>
-  <si>
-    <t>Java (Langage pour ANDROID)</t>
-  </si>
-  <si>
-    <t>Langage de développement pour Android</t>
+    <t xml:space="preserve">Sous iOS : Nécessite un matériel Apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xcode  (IDE pour iOS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est un environnement (IDE - Intégrated Development Environnement) de développement pour le système d'exploitation macOS ainsi que pour IOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective-C (Langage pour iOS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective-C est un langage de programmation orienté objet réflexif extension du C. Il est principalement utilisé dans les systèmes d'exploitation d'Apple : macOS et son dérivé iOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sous Android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android studio (IDE pour ANDROID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est un environnement (IDE) de développement pour le système d'exploitation Android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eclipse (IDE pour ANDROID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eclipse est un projet, décliné et organisé en un ensemble de sous-projets de développements logiciels, de la fondation Eclipse visant à développer un environnement de production de logiciels libre qui soit extensible, universel et polyvalent, en s'appuyant principalement sur Java.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java (Langage pour ANDROID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Langage de développement pour Android</t>
   </si>
   <si>
     <t xml:space="preserve">Pour créer une application mobile, il faut “communiquer avec le SDK natif” via le code source. </t>
   </si>
   <si>
-    <t>SDK (propre à chaque système d'exploitation)</t>
-  </si>
-  <si>
-    <t>SDK (Software Development Kit) est l'ensemble des outils d'accès aux fonctionalités d'un mobile (géolocalisation, contact, médias, appareil photo…) pour permettre la programmation d’applications mobiles.</t>
-  </si>
-  <si>
-    <t>Compilateur</t>
-  </si>
-  <si>
-    <t>Un compilateur est un programme qui transforme un langage de programmation source en général de haut niveau en un langage cible de plus bas niveau.</t>
-  </si>
-  <si>
-    <t>PhoneGap (Compilateur Cordoba pour les APP Hybrides) a des extentions commerciales</t>
-  </si>
-  <si>
-    <t>Adobe PhoneGap ou seulement PhoneGap est un framework destiné à faciliter la création d'applications mobiles pour différentes plateformes - Android, iOS, Windows Phone. Développé par Adobe Systems, il est basé sur Apache Cordova et distribué sous licence open-source.</t>
-  </si>
-  <si>
-    <t>Vue.js (Framework)</t>
-  </si>
-  <si>
-    <t>Est un Framework Javascript évolutif pour construire des interfaces utilisateur. Il peut être intégré avec d'autres bibliothèques ou projets existants.</t>
-  </si>
-  <si>
-    <t>React (Framework)</t>
-  </si>
-  <si>
-    <t>React (aussi appelé React.js ou ReactJS) est une bibliothèque JavaScript libre développée par Facebook depuis 2013. Le but principal de cette bibliothèque est de faciliter la création d'application web monopage. React ne génère que l'interface de l'application considérée comme la Vue dans le modèle MVC. Elle peut être utilisée avec une autre bibliothèque comme AngularJS.</t>
-  </si>
-  <si>
-    <t>Angular (Framework)</t>
-  </si>
-  <si>
-    <t>AngularJS est un framework JavaScript libre et open source développé par Google. Il permet de développer des pages web.</t>
-  </si>
-  <si>
-    <t>Ionic (Framework)</t>
-  </si>
-  <si>
-    <t>Framework basé initialement sur Angular JS et Apache Cordova, Ionic permet de créer un code multisupport en utilisant des outils Web comme html, CSS, Javascript, afin de générer des applications iOS, Android, Chrome, Windows Phone ou autres.</t>
-  </si>
-  <si>
-    <t>Task runner</t>
-  </si>
-  <si>
-    <t>Petits logiciels écrits en JavaScript qui permettent d'automatiser les tâches récurrentes lors d'un développement Web.</t>
-  </si>
-  <si>
-    <t>Dépendance</t>
-  </si>
-  <si>
-    <t>Module indépendant contenu dans un projet informatique comme les bibliothèques. L'ensemble des dépendances sont réunies dans un fichier package.json</t>
-  </si>
-  <si>
-    <t>NPM (Node.js)</t>
-  </si>
-  <si>
-    <t>Package Manager à l'origine pour Node.js devenu le package manager du Javascript aussi bien en front qu'en back. C'est un gestionnaire de taches grace aux scripts qu'il permet d'exécuter.</t>
-  </si>
-  <si>
-    <t>Single page app</t>
-  </si>
-  <si>
-    <t>Une application web monopage (en anglais single-page application ou SPA) est une application web accessible via une page web unique. Le but est d'éviter le chargement d'une nouvelle page à chaque action demandée, et de fluidifier ainsi l'expérience utilisateur</t>
-  </si>
-  <si>
-    <t>App native</t>
-  </si>
-  <si>
-    <t>Une application native est une application mobile conçue pour un système d'exploitation spécifique téléchargeable depuis les boutiques en ligne (Apple Store, Samsung Apps...)</t>
-  </si>
-  <si>
-    <t>App hybride</t>
-  </si>
-  <si>
-    <t>Application basée sur un contenu Web commun aux différents systèmes d'exploitation qui est ensuite "encapsulé" dans une sur-couche adaptée aux défférents systèmes souhaités.</t>
-  </si>
-  <si>
-    <t>WebApp</t>
-  </si>
-  <si>
-    <t>Une WebAPP est une application mobile basée sur les langages de programmation Html, CSS5 et JavaScript et dont accessibles sur tous les navigateurs mobiles quelque soit la plateforme. Elles sont moins coûteuses à développer que les applications natives et permettent d'avoir un responsive design sur toutes les plateformes.</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Une API est une Interface de Programmation Applicative (Application Programming Interface) c'est à dire un logiciel qui offre des services à d'autres logiciels. </t>
-  </si>
-  <si>
-    <t>RESTFUL</t>
-  </si>
-  <si>
-    <t>Une API compatible REST, ou « RESTful », est une interface de programmation d'application qui fait appel à des requêtes HTTP pour obtenir (GET), placer (PUT), publier (POST) et supprimer (DELETE) des données.</t>
-  </si>
-  <si>
-    <t>Stores : Play et itunes</t>
-  </si>
-  <si>
-    <t>Boutiques en ligne permettant de télécharger des applications mobiles natives. Le Play Store pour Android et l'Apple Store pour Apple. 
+    <t xml:space="preserve">SDK (propre à chaque système d'exploitation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDK (Software Development Kit) est l'ensemble des outils d'accès aux fonctionalités d'un mobile (géolocalisation, contact, médias, appareil photo…) pour permettre la programmation d’applications mobiles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compilateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un compilateur est un programme qui transforme un langage de programmation source en général de haut niveau en un langage cible de plus bas niveau.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhoneGap (Compilateur Cordoba pour les APP Hybrides) a des extentions commerciales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adobe PhoneGap ou seulement PhoneGap est un framework destiné à faciliter la création d'applications mobiles pour différentes plateformes - Android, iOS, Windows Phone. Développé par Adobe Systems, il est basé sur Apache Cordova et distribué sous licence open-source.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vue.js (Framework)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est un Framework Javascript évolutif pour construire des interfaces utilisateur. Il peut être intégré avec d'autres bibliothèques ou projets existants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">React (Framework)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">React (aussi appelé React.js ou ReactJS) est une bibliothèque JavaScript libre développée par Facebook depuis 2013. Le but principal de cette bibliothèque est de faciliter la création d'application web monopage. React ne génère que l'interface de l'application considérée comme la Vue dans le modèle MVC. Elle peut être utilisée avec une autre bibliothèque comme AngularJS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular (Framework)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AngularJS est un framework JavaScript libre et open source développé par Google. Il permet de développer des pages web.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ionic (Framework)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Framework basé initialement sur Angular JS et Apache Cordova, Ionic permet de créer un code multisupport en utilisant des outils Web comme html, CSS, Javascript, afin de générer des applications iOS, Android, Chrome, Windows Phone ou autres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task runner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petits logiciels écrits en JavaScript qui permettent d'automatiser les tâches récurrentes lors d'un développement Web.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dépendance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module indépendant ( bibliothèques) contenu dans un projet informatique (chargé dans le dossier nodes-modules) nécessaire au fonctionnement de celui-ci.
+L'ensemble des dépendances sont réunies dans un fichier package.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPM (Node.js)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package Manager à l'origine pour Node.js devenu le package manager du Javascript aussi bien en front qu'en back. C'est un gestionnaire de taches grace aux scripts qu'il permet d'exécuter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single page app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une application web monopage (en anglais single-page application ou SPA) est une application web accessible via une page web unique. Le but est d'éviter le chargement d'une nouvelle page à chaque action demandée, et de fluidifier ainsi l'expérience utilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App native</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une application native est une application mobile conçue pour un système d'exploitation spécifique téléchargeable depuis les boutiques en ligne (Apple Store, Samsung Apps...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App hybride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application basée sur un contenu Web commun aux différents systèmes d'exploitation qui est ensuite "encapsulé" dans une sur-couche adaptée aux défférents systèmes souhaités.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WebApp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une WebAPP est une application mobile basée sur les langages de programmation Html, CSS5 et JavaScript et dont accessibles sur tous les navigateurs mobiles quelque soit la plateforme. Elles sont moins coûteuses à développer que les applications natives et permettent d'avoir un responsive design sur toutes les plateformes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une API est une Interface de Programmation Applicative (Application Programming Interface) : Une application qui permet de récupérer une collection de données sous format .json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTFUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une API compatible REST, ou « RESTful », est une interface de programmation d'application qui fait appel à des requêtes HTTP pour obtenir (GET), placer (PUT), publier (POST) et supprimer (DELETE) des données.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boutiques en ligne permettant de télécharger des applications mobiles natives. Le Play Store pour Android et l'Apple Store pour Apple. 
 Itunes est une application native IOs permettant de gérer des contenus multimédias.</t>
   </si>
   <si>
@@ -177,26 +184,45 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -209,167 +235,222 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF999999"/>
-        <bgColor rgb="FF999999"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
-        <bgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
-    <border>
+  <borders count="2">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+  <cellXfs count="13">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCFE2F3"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF999999"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>762120</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:rowOff>247680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4714875</xdr:colOff>
+      <xdr:colOff>4714560</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>4572000</xdr:rowOff>
+      <xdr:rowOff>4571640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image1.png" title="Image"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPr id="0" name="image1.png" descr=""/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6391275" cy="4324350"/>
+          <a:off x="762120" y="5276880"/>
+          <a:ext cx="6532920" cy="4323960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -378,338 +459,57 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5181600</xdr:colOff>
+      <xdr:colOff>5181120</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="image2.png" title="Image"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPr id="1" name="image2.png" descr=""/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="18516600"/>
-          <a:ext cx="7620000" cy="11315700"/>
+          <a:ext cx="7761600" cy="11315160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" customWidth="1"/>
-    <col min="2" max="2" width="90" customWidth="1"/>
-    <col min="3" max="3" width="70.5703125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="90.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="70.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -741,7 +541,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -773,11 +573,11 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+    <row r="3" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -803,11 +603,11 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2"/>
@@ -835,11 +635,11 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="5" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2"/>
@@ -867,11 +667,11 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+    <row r="6" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -897,11 +697,11 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2"/>
@@ -929,11 +729,11 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2"/>
@@ -961,11 +761,11 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="9" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2"/>
@@ -993,11 +793,11 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+    <row r="10" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1023,11 +823,11 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+    <row r="11" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2"/>
@@ -1055,9 +855,9 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="391.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="14"/>
+    <row r="12" customFormat="false" ht="391.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1083,7 +883,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
@@ -1115,11 +915,11 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="14" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="2"/>
@@ -1147,9 +947,9 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
+    <row r="15" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1175,11 +975,11 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    <row r="16" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="2"/>
@@ -1207,11 +1007,11 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+    <row r="17" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="2"/>
@@ -1239,11 +1039,11 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+    <row r="18" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="2"/>
@@ -1271,11 +1071,11 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+    <row r="19" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="2"/>
@@ -1303,9 +1103,9 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="14"/>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1331,11 +1131,11 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+    <row r="21" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="2"/>
@@ -1363,11 +1163,11 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+    <row r="22" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="2"/>
@@ -1395,11 +1195,11 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+    <row r="23" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="2"/>
@@ -1427,9 +1227,9 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="14"/>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1455,11 +1255,11 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+    <row r="25" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="2"/>
@@ -1487,11 +1287,11 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+    <row r="26" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="2"/>
@@ -1519,11 +1319,11 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+    <row r="27" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="2"/>
@@ -1551,11 +1351,11 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+    <row r="28" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="2"/>
@@ -1583,15 +1383,15 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="14"/>
-    </row>
-    <row r="30" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C30" s="2"/>
@@ -1619,11 +1419,11 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+    <row r="31" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="2"/>
@@ -1651,11 +1451,11 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+    <row r="32" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="2"/>
@@ -1683,51 +1483,55 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="36" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-    </row>
-    <row r="37" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-    </row>
-    <row r="38" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-    </row>
-    <row r="40" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-    </row>
-    <row r="42" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B44" s="10" t="s">
+    <row r="36" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+    </row>
+    <row r="38" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+    </row>
+    <row r="39" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+    </row>
+    <row r="40" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+    </row>
+    <row r="41" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="12" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A36:C36"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>